--- a/TooManyVillian/Assets/Scripts/UI/DialogScreen/Dialog.xlsx
+++ b/TooManyVillian/Assets/Scripts/UI/DialogScreen/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Documents\GitHub\Project_Villian\TooManyVillian\Assets\Scripts\UI\DialogScreen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1124EF-B70A-4FA9-8879-709B75310CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56430D9A-F33D-4BB5-A80C-2C4CF35D5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0644A6B9-39AA-4897-B7D4-6FA381963A23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0644A6B9-39AA-4897-B7D4-6FA381963A23}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,15 +177,6 @@
   <si>
     <t>evil2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이</t>
-  </si>
-  <si>
-    <t>로이</t>
-  </si>
-  <si>
-    <t>릴리스</t>
   </si>
   <si>
     <t xml:space="preserve">[채용]은 [공개 채용] [스카우트] [마족풀] 이라는 3가지의 종류를 통해 이뤄집니다.
@@ -200,14 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +200,18 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lilith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E00147D-2ABC-4740-AA23-8B626FB69A0B}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -705,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -728,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -751,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -774,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -797,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -820,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -843,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -866,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -892,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -918,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -944,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -953,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="128.25" customHeight="1">
@@ -967,16 +962,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H13">
         <v>25</v>
@@ -993,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -1016,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -1039,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -1062,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1085,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -1108,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -1131,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1157,7 +1152,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -1180,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -1203,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -1226,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -1249,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1272,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -1298,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -1321,7 +1316,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -1330,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1353,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1367,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -1376,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">

--- a/TooManyVillian/Assets/Scripts/UI/DialogScreen/Dialog.xlsx
+++ b/TooManyVillian/Assets/Scripts/UI/DialogScreen/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Documents\GitHub\Project_Villian\TooManyVillian\Assets\Scripts\UI\DialogScreen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56430D9A-F33D-4BB5-A80C-2C4CF35D5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E640B-BE62-460D-904D-82052671EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0644A6B9-39AA-4897-B7D4-6FA381963A23}"/>
+    <workbookView xWindow="795" yWindow="795" windowWidth="23940" windowHeight="15030" xr2:uid="{0644A6B9-39AA-4897-B7D4-6FA381963A23}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogDB" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E00147D-2ABC-4740-AA23-8B626FB69A0B}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -974,7 +974,7 @@
         <v>40</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1">
@@ -1138,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1279,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
